--- a/Datos/LesionesPersonalesCali.xlsx
+++ b/Datos/LesionesPersonalesCali.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielHernandezCuero\Documents\GeneticAlgorithm\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5F40D20-E7DA-4FD1-B079-2BC27BD5A4D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8F0EFF-BCDB-4BBA-B803-8F5549BEEA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{80FCD5E5-B859-40F5-8BF0-E8755D8A584B}"/>
   </bookViews>
   <sheets>
     <sheet name="LESIONES-PERSONALES-CALI" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -451,7 +456,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
